--- a/Personal Finance Analysis by Debora Klein.xlsx
+++ b/Personal Finance Analysis by Debora Klein.xlsx
@@ -5,24 +5,23 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\Downloads\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\OneDrive\Github\Personal Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9D6677-7601-4FDE-989C-DDEC975880A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02FF4C8-3C2B-4AAA-B2BD-DA6D2AB1EF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="fg6GxImnOZRTdJcyIicodlZm8bclHxgaqmIcm0elg/pIOiRFTKKuEDfUYuY3tiJY26POjZcMoVie/4gmK6xIIQ==" workbookSaltValue="nktPSFQeyKG6L2xlS6rjcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Record" sheetId="2" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="7" r:id="rId2"/>
-    <sheet name="Registration" sheetId="6" r:id="rId3"/>
+    <sheet name="Record" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Registration" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Analysis!$E$21:$F$42</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Analysis!$G$21:$G$42</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Analysis!$E$21:$F$42</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Analysis!$G$21:$G$42</definedName>
     <definedName name="Car">Record!$D$14:$H$14</definedName>
     <definedName name="Expenses">Record!$D$13:$I$13</definedName>
     <definedName name="Groceries">Record!$D$18:$F$18</definedName>
@@ -33,7 +32,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -293,10 +292,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -371,11 +370,11 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -388,10 +387,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -399,6 +398,23 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -430,28 +446,11 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight5 2" pivot="0" table="0" count="10" xr9:uid="{71D96D59-73FE-4506-A6EB-8BD3D5349FC6}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -758,21 +757,9 @@
             <c:strRef>
               <c:f>Record!$D$13:$H$13</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Eletricity</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Water</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Gas</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Property Tax</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Phone</c:v>
+                  <c:v>Eletricity Water Gas Property Tax Phone</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -922,40 +909,40 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5026</c:v>
+                  <c:v>11124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4805</c:v>
+                  <c:v>10228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5780</c:v>
+                  <c:v>14078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6013</c:v>
+                  <c:v>11539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8365</c:v>
+                  <c:v>15103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6455</c:v>
+                  <c:v>12595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7754</c:v>
+                  <c:v>13416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5317</c:v>
+                  <c:v>10120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7227</c:v>
+                  <c:v>12284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5584</c:v>
+                  <c:v>12828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6269</c:v>
+                  <c:v>9686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8715</c:v>
+                  <c:v>16103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1118,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboards Impressionadores - Dashboard 8 - Live Completa (Parte 1) - Dashboard 8 - Do Zero.xlsx]Analysis!Top 5 Expenses</c:name>
+    <c:name>[Personal Finance Analysis by Debora Klein.xlsx]Analysis!Top 5 Expenses</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -1423,13 +1410,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Doctor Visits</c:v>
+                  <c:v>Personal Care</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Personal Care</c:v>
+                  <c:v>App-Based Transportation</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>App-Based Transportation</c:v>
+                  <c:v>Medical Tests</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Fresh Produce</c:v>
@@ -1447,19 +1434,19 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5190</c:v>
+                  <c:v>9871</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6025</c:v>
+                  <c:v>9965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6279</c:v>
+                  <c:v>10692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7928</c:v>
+                  <c:v>15503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11281</c:v>
+                  <c:v>19517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,7 +1607,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboards Impressionadores - Dashboard 8 - Live Completa (Parte 1) - Dashboard 8 - Do Zero.xlsx]Analysis!Months with Highest Expenses</c:name>
+    <c:name>[Personal Finance Analysis by Debora Klein.xlsx]Analysis!Months with Highest Expenses</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -2349,7 +2336,6 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2412,7 +2398,6 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2477,7 +2462,6 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2540,7 +2524,6 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2603,7 +2586,6 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2666,7 +2648,6 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2721,7 +2702,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jul</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>May</c:v>
@@ -2739,13 +2720,13 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1715</c:v>
+                  <c:v>2449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
+                  <c:v>1383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>997</c:v>
+                  <c:v>3566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,7 +2773,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jul</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>May</c:v>
@@ -2810,13 +2791,13 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1409</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1021</c:v>
+                  <c:v>1838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1068</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,7 +2846,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jul</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>May</c:v>
@@ -2883,13 +2864,13 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>275</c:v>
+                  <c:v>1941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3826</c:v>
+                  <c:v>4960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1141</c:v>
+                  <c:v>1584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,7 +2917,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jul</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>May</c:v>
@@ -2954,13 +2935,13 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2043</c:v>
+                  <c:v>3185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>453</c:v>
+                  <c:v>2573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,7 +2988,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jul</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>May</c:v>
@@ -3025,13 +3006,13 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>824</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1759</c:v>
+                  <c:v>2826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2138</c:v>
+                  <c:v>3203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,7 +3059,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jul</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>May</c:v>
@@ -3096,13 +3077,13 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1488</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1432</c:v>
+                  <c:v>2821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2918</c:v>
+                  <c:v>3711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,7 +3095,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3323,7 +3303,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboards Impressionadores - Dashboard 8 - Live Completa (Parte 1) - Dashboard 8 - Do Zero.xlsx]Analysis!Income Trends</c:name>
+    <c:name>[Personal Finance Analysis by Debora Klein.xlsx]Analysis!Income Trends</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -3765,40 +3745,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7500</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,11 +3872,17 @@
                 <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,7 +4114,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboards Impressionadores - Dashboard 8 - Live Completa (Parte 1) - Dashboard 8 - Do Zero.xlsx]Analysis!Profit Trends</c:name>
+    <c:name>[Personal Finance Analysis by Debora Klein.xlsx]Analysis!Profit Trends</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -4391,40 +4377,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2074</c:v>
+                  <c:v>1976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2495</c:v>
+                  <c:v>3272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2220</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1037</c:v>
+                  <c:v>1611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1365</c:v>
+                  <c:v>-1303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>945</c:v>
+                  <c:v>1005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1183</c:v>
+                  <c:v>2480</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-127</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3416</c:v>
+                  <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>731</c:v>
+                  <c:v>4214</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6215</c:v>
+                  <c:v>-9603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,10 +4718,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
-                  <c:v>837.5</c:v>
+                  <c:v>720.83333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162.5</c:v>
+                  <c:v>279.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
                   <c:v>1000</c:v>
@@ -4784,6 +4770,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F72A-4A61-B531-EFAA7A20B534}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4797,6 +4788,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F72A-4A61-B531-EFAA7A20B534}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4808,6 +4804,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F72A-4A61-B531-EFAA7A20B534}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4819,6 +4820,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F72A-4A61-B531-EFAA7A20B534}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4847,13 +4853,13 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>837.5</c:v>
+                  <c:v>720.83333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147.5</c:v>
+                  <c:v>264.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -10218,8 +10224,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4948518" y="5029200"/>
-              <a:ext cx="9386047" cy="2079812"/>
+              <a:off x="4948518" y="5129605"/>
+              <a:ext cx="9386047" cy="2119256"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10502,7 +10508,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>83,8%</a:t>
+            <a:t>72,1%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1600" b="1">
             <a:solidFill>
@@ -10594,7 +10600,7 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10674,7 +10680,7 @@
     <worksheetSource name="Registration"/>
   </cacheSource>
   <cacheFields count="12">
-    <cacheField name="Date" numFmtId="166">
+    <cacheField name="Date" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-01-01T00:00:00" maxDate="2023-01-01T00:00:00" count="373">
         <d v="2021-01-01T00:00:00"/>
         <d v="2021-01-03T00:00:00"/>
@@ -11108,7 +11114,7 @@
         <s v="Side Jobs"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Cost" numFmtId="169">
+    <cacheField name="Cost" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-5000" maxValue="7500"/>
     </cacheField>
     <cacheField name="Notes" numFmtId="0">
@@ -15634,10 +15640,1081 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13CA3CE6-00BC-4C2B-B0E9-004A797BC6A2}" name="Financial Overview" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E37110D-9077-4A62-AE07-8D6913167B19}" name="Top 5 Expenses" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="164" showAll="0">
+      <items count="374">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item h="1" x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
+      <items count="26">
+        <item x="10"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Top 5 Expenses" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="13" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E43408C-9068-428C-863D-E273F809EF7C}" name="Investment Goal" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="164" showAll="0">
+      <items count="374">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="26">
+        <item h="1" x="10"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="19"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="2"/>
+        <item h="1" x="21"/>
+        <item x="1"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="6"/>
+        <item h="1" x="20"/>
+        <item h="1" x="12"/>
+        <item h="1" x="7"/>
+        <item h="1" x="11"/>
+        <item h="1" x="9"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="24"/>
+        <item h="1" x="17"/>
+        <item h="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Cost" fld="4" subtotal="average" baseField="0" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13CA3CE6-00BC-4C2B-B0E9-004A797BC6A2}" name="Financial Overview" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A20:C43" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="12">
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
       <items count="373">
         <item x="0"/>
         <item x="1"/>
@@ -16090,7 +17167,7 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="169" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="166" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -16145,7 +17222,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
         <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="1"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item h="1" sd="0" x="3"/>
         <item h="1" sd="0" x="4"/>
@@ -16263,7 +17340,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Expenses" fld="9" baseField="0" baseItem="0" numFmtId="169"/>
+    <dataField name="Soma de Expenses" fld="9" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -16277,11 +17354,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04BAD0CB-3B69-40C5-9E8F-4A55570F9FE5}" name="Profit Trends" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04BAD0CB-3B69-40C5-9E8F-4A55570F9FE5}" name="Profit Trends" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="O13:P26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
-    <pivotField numFmtId="166" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="374">
         <item x="0"/>
         <item x="1"/>
@@ -16689,7 +17766,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
@@ -16724,7 +17801,7 @@
     <pivotField showAll="0">
       <items count="6">
         <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="1"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item h="1" sd="0" x="3"/>
         <item h="1" sd="0" x="4"/>
@@ -16817,11 +17894,563 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B923CB5-4CC8-4A66-9E2E-9110B254ECD2}" name="Months with Highest Expenses" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FDB88D4-6371-4902-849C-3C53190EE2D4}" name="Expenses" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="164" showAll="0">
+      <items count="374">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item h="1" x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="26">
+        <item x="10"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item h="1" x="1"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Expenses" fld="9" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B923CB5-4CC8-4A66-9E2E-9110B254ECD2}" name="Months with Highest Expenses" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="N1:U6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
-    <pivotField numFmtId="166" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="374">
         <item x="0"/>
         <item x="1"/>
@@ -17267,7 +18896,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="169" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
@@ -17302,7 +18931,7 @@
     <pivotField showAll="0">
       <items count="6">
         <item h="1" sd="0" x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item x="2"/>
         <item h="1" sd="0" x="3"/>
         <item h="1" sd="0" x="4"/>
@@ -17318,7 +18947,7 @@
   </rowFields>
   <rowItems count="4">
     <i>
-      <x v="6"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="4"/>
@@ -17357,7 +18986,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Months with Highest Expenses" fld="11" baseField="0" baseItem="0" numFmtId="169"/>
+    <dataField name="Soma de Months with Highest Expenses" fld="11" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <chartFormats count="6">
     <chartFormat chart="5" format="12" series="1">
@@ -17454,11 +19083,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD86B396-5F2A-471E-86F5-96DD27A772B0}" name="Income Trends" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD86B396-5F2A-471E-86F5-96DD27A772B0}" name="Income Trends" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="J12:M26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
-    <pivotField numFmtId="166" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="374">
         <item x="0"/>
         <item x="1"/>
@@ -17895,7 +19524,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
@@ -17930,7 +19559,7 @@
     <pivotField showAll="0">
       <items count="6">
         <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="1"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item h="1" sd="0" x="3"/>
         <item h="1" sd="0" x="4"/>
@@ -18043,1629 +19672,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E37110D-9077-4A62-AE07-8D6913167B19}" name="Top 5 Expenses" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="166" showAll="0">
-      <items count="374">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item h="1" x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
-      <items count="26">
-        <item x="10"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="24"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item h="1" sd="0" x="3"/>
-        <item h="1" sd="0" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Top 5 Expenses" fld="10" baseField="0" baseItem="0" numFmtId="169"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="13" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="5" filterVal="5"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E43408C-9068-428C-863D-E273F809EF7C}" name="Investment Goal" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J3:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="166" showAll="0">
-      <items count="374">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="26">
-        <item h="1" x="10"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="19"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="2"/>
-        <item h="1" x="21"/>
-        <item x="1"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="6"/>
-        <item h="1" x="20"/>
-        <item h="1" x="12"/>
-        <item h="1" x="7"/>
-        <item h="1" x="11"/>
-        <item h="1" x="9"/>
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="24"/>
-        <item h="1" x="17"/>
-        <item h="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item h="1" sd="0" x="3"/>
-        <item h="1" sd="0" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Cost" fld="4" subtotal="average" baseField="0" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FDB88D4-6371-4902-849C-3C53190EE2D4}" name="Expenses" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="166" showAll="0">
-      <items count="374">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item h="1" x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0">
-      <items count="26">
-        <item x="10"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item h="1" x="1"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="24"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" sd="0" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" sd="0" x="3"/>
-        <item h="1" sd="0" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Expenses" fld="9" baseField="0" baseItem="0" numFmtId="169"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Anos__Date" xr10:uid="{49FBC69F-11E8-45D9-A178-0A6C2314A201}" sourceName="Anos (Date)">
   <pivotTables>
@@ -19680,7 +19686,7 @@
   <data>
     <tabular pivotCacheId="445908697" showMissing="0">
       <items count="5">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1"/>
         <i x="0" nd="1"/>
         <i x="4" nd="1"/>
@@ -19773,14 +19779,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{05FA8731-0AD4-4C33-90FB-73EDAFE13AB1}" name="Registration" displayName="Registration" ref="A1:F558" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{05FA8731-0AD4-4C33-90FB-73EDAFE13AB1}" name="Registration" displayName="Registration" ref="A1:F558" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:F558" xr:uid="{05FA8731-0AD4-4C33-90FB-73EDAFE13AB1}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7600DB70-82B3-487A-A786-A09B88EB3291}" name="Date" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F99D9046-E367-4883-815C-36A97B069D7A}" name="Month" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7600DB70-82B3-487A-A786-A09B88EB3291}" name="Date" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F99D9046-E367-4883-815C-36A97B069D7A}" name="Month" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{CC098DC6-163A-49CA-9960-B638CDD64930}" name="Categories"/>
     <tableColumn id="3" xr3:uid="{6BC576B0-CB8C-4AB4-B0C2-1FB0FD66B83D}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{38951835-4FDF-41B1-B34D-BEC82A8C096A}" name="Cost" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{38951835-4FDF-41B1-B34D-BEC82A8C096A}" name="Cost" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{FD60B585-1611-4155-B1D6-AA8640826806}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -20426,11 +20432,11 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F2" s="16">
         <f>IF(K4&lt;=1000,K4,1000)</f>
-        <v>837.5</v>
+        <v>720.83333333333337</v>
       </c>
       <c r="G2" s="14">
         <f>H2-F2</f>
-        <v>162.5</v>
+        <v>279.16666666666663</v>
       </c>
       <c r="H2" s="18">
         <v>1000</v>
@@ -20490,28 +20496,28 @@
         <v>68</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2">
-        <v>1715</v>
+        <v>2449</v>
       </c>
       <c r="P3" s="2">
-        <v>1409</v>
+        <v>2013</v>
       </c>
       <c r="Q3" s="2">
-        <v>275</v>
+        <v>1941</v>
       </c>
       <c r="R3" s="2">
-        <v>2043</v>
+        <v>3185</v>
       </c>
       <c r="S3" s="2">
-        <v>824</v>
+        <v>1973</v>
       </c>
       <c r="T3" s="2">
-        <v>1488</v>
+        <v>2517</v>
       </c>
       <c r="U3" s="2">
-        <v>7754</v>
+        <v>14078</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -20519,59 +20525,59 @@
         <v>51</v>
       </c>
       <c r="B4" s="2">
-        <v>5026</v>
+        <v>11124</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
-        <v>5190</v>
+        <v>9871</v>
       </c>
       <c r="F4" s="16">
         <f>F2</f>
-        <v>837.5</v>
+        <v>720.83333333333337</v>
       </c>
       <c r="G4" s="16">
         <v>15</v>
       </c>
       <c r="H4" s="16">
         <f>I4-F4-G4</f>
-        <v>147.5</v>
+        <v>264.16666666666663</v>
       </c>
       <c r="I4" s="18">
         <v>1000</v>
       </c>
       <c r="J4" s="10">
-        <v>-837.5</v>
+        <v>-720.83333333333337</v>
       </c>
       <c r="K4" s="17">
         <f>-J4</f>
-        <v>837.5</v>
+        <v>720.83333333333337</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="O4" s="2">
-        <v>142</v>
+        <v>1383</v>
       </c>
       <c r="P4" s="2">
-        <v>1021</v>
+        <v>1838</v>
       </c>
       <c r="Q4" s="2">
-        <v>3826</v>
+        <v>4960</v>
       </c>
       <c r="R4" s="2">
-        <v>185</v>
+        <v>1275</v>
       </c>
       <c r="S4" s="2">
-        <v>1759</v>
+        <v>2826</v>
       </c>
       <c r="T4" s="2">
-        <v>1432</v>
+        <v>2821</v>
       </c>
       <c r="U4" s="2">
-        <v>8365</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -20579,14 +20585,14 @@
         <v>52</v>
       </c>
       <c r="B5" s="2">
-        <v>4805</v>
+        <v>10228</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>6025</v>
+        <v>9965</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -20596,25 +20602,25 @@
         <v>62</v>
       </c>
       <c r="O5" s="2">
-        <v>997</v>
+        <v>3566</v>
       </c>
       <c r="P5" s="2">
-        <v>1068</v>
+        <v>1466</v>
       </c>
       <c r="Q5" s="2">
-        <v>1141</v>
+        <v>1584</v>
       </c>
       <c r="R5" s="2">
-        <v>453</v>
+        <v>2573</v>
       </c>
       <c r="S5" s="2">
-        <v>2138</v>
+        <v>3203</v>
       </c>
       <c r="T5" s="2">
-        <v>2918</v>
+        <v>3711</v>
       </c>
       <c r="U5" s="2">
-        <v>8715</v>
+        <v>16103</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -20622,21 +20628,21 @@
         <v>53</v>
       </c>
       <c r="B6" s="2">
-        <v>5780</v>
+        <v>14078</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>6279</v>
+        <v>10692</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G6" s="19">
         <f>F4/I4</f>
-        <v>0.83750000000000002</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -20644,25 +20650,25 @@
         <v>48</v>
       </c>
       <c r="O6" s="2">
-        <v>2854</v>
+        <v>7398</v>
       </c>
       <c r="P6" s="2">
-        <v>3498</v>
+        <v>5317</v>
       </c>
       <c r="Q6" s="2">
-        <v>5242</v>
+        <v>8485</v>
       </c>
       <c r="R6" s="2">
-        <v>2681</v>
+        <v>7033</v>
       </c>
       <c r="S6" s="2">
-        <v>4721</v>
+        <v>8002</v>
       </c>
       <c r="T6" s="2">
-        <v>5838</v>
+        <v>9049</v>
       </c>
       <c r="U6" s="2">
-        <v>24834</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -20670,14 +20676,14 @@
         <v>54</v>
       </c>
       <c r="B7" s="2">
-        <v>6013</v>
+        <v>11539</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="2">
-        <v>7928</v>
+        <v>15503</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -20689,14 +20695,14 @@
         <v>55</v>
       </c>
       <c r="B8" s="2">
-        <v>8365</v>
+        <v>15103</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>11281</v>
+        <v>19517</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -20708,14 +20714,14 @@
         <v>56</v>
       </c>
       <c r="B9" s="2">
-        <v>6455</v>
+        <v>12595</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="2">
-        <v>36703</v>
+        <v>65548</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -20727,7 +20733,7 @@
         <v>57</v>
       </c>
       <c r="B10" s="2">
-        <v>7754</v>
+        <v>13416</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -20748,7 +20754,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="2">
-        <v>5317</v>
+        <v>10120</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -20763,7 +20769,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="2">
-        <v>7227</v>
+        <v>12284</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -20784,7 +20790,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="2">
-        <v>5584</v>
+        <v>12828</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -20817,7 +20823,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="2">
-        <v>6269</v>
+        <v>9686</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -20830,17 +20836,17 @@
         <v>51</v>
       </c>
       <c r="K14" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>51</v>
       </c>
       <c r="P14" s="10">
-        <v>2074</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -20848,7 +20854,7 @@
         <v>62</v>
       </c>
       <c r="B15" s="2">
-        <v>8715</v>
+        <v>16103</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -20861,17 +20867,17 @@
         <v>52</v>
       </c>
       <c r="K15" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>52</v>
       </c>
       <c r="P15" s="10">
-        <v>2495</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -20879,7 +20885,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="2">
-        <v>77310</v>
+        <v>149104</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -20892,19 +20898,19 @@
         <v>53</v>
       </c>
       <c r="K16" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L16" s="10">
         <v>1000</v>
       </c>
       <c r="M16" s="10">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>53</v>
       </c>
       <c r="P16" s="10">
-        <v>2220</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -20917,17 +20923,17 @@
         <v>54</v>
       </c>
       <c r="K17" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>54</v>
       </c>
       <c r="P17" s="10">
-        <v>1037</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -20940,17 +20946,19 @@
         <v>55</v>
       </c>
       <c r="K18" s="10">
-        <v>7500</v>
-      </c>
-      <c r="L18" s="10"/>
+        <v>14000</v>
+      </c>
+      <c r="L18" s="10">
+        <v>800</v>
+      </c>
       <c r="M18" s="10">
-        <v>7500</v>
+        <v>14800</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="P18" s="10">
-        <v>-1365</v>
+        <v>-1303</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -20963,17 +20971,17 @@
         <v>56</v>
       </c>
       <c r="K19" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P19" s="10">
-        <v>945</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -20994,19 +21002,19 @@
         <v>57</v>
       </c>
       <c r="K20" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L20" s="10">
         <v>900</v>
       </c>
       <c r="M20" s="10">
-        <v>8400</v>
+        <v>14900</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>57</v>
       </c>
       <c r="P20" s="10">
-        <v>146</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -21017,20 +21025,20 @@
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>4301</v>
+        <v>7980</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="str">
-        <f>A21</f>
+        <f t="shared" ref="E21:E42" si="0">A21</f>
         <v>Car</v>
       </c>
       <c r="F21" s="13" t="str">
-        <f>B21</f>
+        <f t="shared" ref="F21:F42" si="1">B21</f>
         <v>Cleaning</v>
       </c>
       <c r="G21" s="13">
-        <f>C21</f>
-        <v>4301</v>
+        <f t="shared" ref="G21:G42" si="2">C21</f>
+        <v>7980</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -21038,17 +21046,17 @@
         <v>58</v>
       </c>
       <c r="K21" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="P21" s="10">
-        <v>1183</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -21059,20 +21067,20 @@
         <v>8</v>
       </c>
       <c r="C22" s="2">
-        <v>2442</v>
+        <v>3724</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="str">
-        <f>A22</f>
+        <f t="shared" si="0"/>
         <v>Car</v>
       </c>
       <c r="F22" s="13" t="str">
-        <f>B22</f>
+        <f t="shared" si="1"/>
         <v>Fuel</v>
       </c>
       <c r="G22" s="13">
-        <f>C22</f>
-        <v>2442</v>
+        <f t="shared" si="2"/>
+        <v>3724</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -21080,17 +21088,17 @@
         <v>59</v>
       </c>
       <c r="K22" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P22" s="10">
-        <v>-127</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -21101,20 +21109,20 @@
         <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>1920</v>
+        <v>5154</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="str">
-        <f>A23</f>
+        <f t="shared" si="0"/>
         <v>Car</v>
       </c>
       <c r="F23" s="13" t="str">
-        <f>B23</f>
+        <f t="shared" si="1"/>
         <v>Insurance</v>
       </c>
       <c r="G23" s="13">
-        <f>C23</f>
-        <v>1920</v>
+        <f t="shared" si="2"/>
+        <v>5154</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -21122,19 +21130,19 @@
         <v>60</v>
       </c>
       <c r="K23" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L23" s="10">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M23" s="10">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>60</v>
       </c>
       <c r="P23" s="10">
-        <v>3416</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -21145,20 +21153,20 @@
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>2093</v>
+        <v>6230</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="str">
-        <f>A24</f>
+        <f t="shared" si="0"/>
         <v>Car</v>
       </c>
       <c r="F24" s="13" t="str">
-        <f>B24</f>
+        <f t="shared" si="1"/>
         <v>Maintenance</v>
       </c>
       <c r="G24" s="13">
-        <f>C24</f>
-        <v>2093</v>
+        <f t="shared" si="2"/>
+        <v>6230</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -21166,17 +21174,19 @@
         <v>61</v>
       </c>
       <c r="K24" s="10">
-        <v>7500</v>
-      </c>
-      <c r="L24" s="10"/>
+        <v>14000</v>
+      </c>
+      <c r="L24" s="10">
+        <v>700</v>
+      </c>
       <c r="M24" s="10">
-        <v>7500</v>
+        <v>14700</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>61</v>
       </c>
       <c r="P24" s="10">
-        <v>731</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -21187,36 +21197,36 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
-        <v>1799</v>
+        <v>4170</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="str">
-        <f>A25</f>
+        <f t="shared" si="0"/>
         <v>Car</v>
       </c>
       <c r="F25" s="13" t="str">
-        <f>B25</f>
+        <f t="shared" si="1"/>
         <v>Vehicle Tax</v>
       </c>
       <c r="G25" s="13">
-        <f>C25</f>
-        <v>1799</v>
+        <f t="shared" si="2"/>
+        <v>4170</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>62</v>
       </c>
       <c r="K25" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>62</v>
       </c>
       <c r="P25" s="10">
-        <v>-6215</v>
+        <v>-9603</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -21227,38 +21237,38 @@
         <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>1006</v>
+        <v>1860</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="str">
-        <f>A26</f>
+        <f t="shared" si="0"/>
         <v>Expenses</v>
       </c>
       <c r="F26" s="13" t="str">
-        <f>B26</f>
+        <f t="shared" si="1"/>
         <v>Electricity</v>
       </c>
       <c r="G26" s="13">
-        <f>C26</f>
-        <v>1006</v>
+        <f t="shared" si="2"/>
+        <v>1860</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="K26" s="10">
-        <v>90000</v>
+        <v>168000</v>
       </c>
       <c r="L26" s="10">
-        <v>3900</v>
+        <v>6900</v>
       </c>
       <c r="M26" s="10">
-        <v>93900</v>
+        <v>174900</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="P26" s="10">
-        <v>6540</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -21269,20 +21279,20 @@
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>2278</v>
+        <v>3615</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="str">
-        <f>A27</f>
+        <f t="shared" si="0"/>
         <v>Expenses</v>
       </c>
       <c r="F27" s="13" t="str">
-        <f>B27</f>
+        <f t="shared" si="1"/>
         <v>Gas</v>
       </c>
       <c r="G27" s="13">
-        <f>C27</f>
-        <v>2278</v>
+        <f t="shared" si="2"/>
+        <v>3615</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -21293,20 +21303,20 @@
         <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>1461</v>
+        <v>2102</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="13" t="str">
-        <f>A28</f>
+        <f t="shared" si="0"/>
         <v>Expenses</v>
       </c>
       <c r="F28" s="13" t="str">
-        <f>B28</f>
+        <f t="shared" si="1"/>
         <v>Internet</v>
       </c>
       <c r="G28" s="13">
-        <f>C28</f>
-        <v>1461</v>
+        <f t="shared" si="2"/>
+        <v>2102</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -21317,20 +21327,20 @@
         <v>6</v>
       </c>
       <c r="C29" s="2">
-        <v>2714</v>
+        <v>5045</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="13" t="str">
-        <f>A29</f>
+        <f t="shared" si="0"/>
         <v>Expenses</v>
       </c>
       <c r="F29" s="13" t="str">
-        <f>B29</f>
+        <f t="shared" si="1"/>
         <v>Phone</v>
       </c>
       <c r="G29" s="13">
-        <f>C29</f>
-        <v>2714</v>
+        <f t="shared" si="2"/>
+        <v>5045</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -21341,20 +21351,20 @@
         <v>5</v>
       </c>
       <c r="C30" s="2">
-        <v>3499</v>
+        <v>5108</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="13" t="str">
-        <f>A30</f>
+        <f t="shared" si="0"/>
         <v>Expenses</v>
       </c>
       <c r="F30" s="13" t="str">
-        <f>B30</f>
+        <f t="shared" si="1"/>
         <v>Property Tax</v>
       </c>
       <c r="G30" s="13">
-        <f>C30</f>
-        <v>3499</v>
+        <f t="shared" si="2"/>
+        <v>5108</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -21365,20 +21375,20 @@
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>1111</v>
+        <v>3332</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="13" t="str">
-        <f>A31</f>
+        <f t="shared" si="0"/>
         <v>Expenses</v>
       </c>
       <c r="F31" s="13" t="str">
-        <f>B31</f>
+        <f t="shared" si="1"/>
         <v>Water</v>
       </c>
       <c r="G31" s="13">
-        <f>C31</f>
-        <v>1111</v>
+        <f t="shared" si="2"/>
+        <v>3332</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -21389,20 +21399,20 @@
         <v>27</v>
       </c>
       <c r="C32" s="2">
-        <v>7928</v>
+        <v>15503</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="13" t="str">
-        <f>A32</f>
+        <f t="shared" si="0"/>
         <v>Groceries</v>
       </c>
       <c r="F32" s="13" t="str">
-        <f>B32</f>
+        <f t="shared" si="1"/>
         <v>Fresh Produce</v>
       </c>
       <c r="G32" s="13">
-        <f>C32</f>
-        <v>7928</v>
+        <f t="shared" si="2"/>
+        <v>15503</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -21413,20 +21423,20 @@
         <v>26</v>
       </c>
       <c r="C33" s="2">
-        <v>1248</v>
+        <v>2375</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="13" t="str">
-        <f>A33</f>
+        <f t="shared" si="0"/>
         <v>Groceries</v>
       </c>
       <c r="F33" s="13" t="str">
-        <f>B33</f>
+        <f t="shared" si="1"/>
         <v>Grocery</v>
       </c>
       <c r="G33" s="13">
-        <f>C33</f>
-        <v>1248</v>
+        <f t="shared" si="2"/>
+        <v>2375</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -21437,20 +21447,20 @@
         <v>25</v>
       </c>
       <c r="C34" s="2">
-        <v>6025</v>
+        <v>9871</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="13" t="str">
-        <f>A34</f>
+        <f t="shared" si="0"/>
         <v>Groceries</v>
       </c>
       <c r="F34" s="13" t="str">
-        <f>B34</f>
+        <f t="shared" si="1"/>
         <v>Personal Care</v>
       </c>
       <c r="G34" s="13">
-        <f>C34</f>
-        <v>6025</v>
+        <f t="shared" si="2"/>
+        <v>9871</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -21461,20 +21471,20 @@
         <v>19</v>
       </c>
       <c r="C35" s="2">
-        <v>5190</v>
+        <v>9065</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="13" t="str">
-        <f>A35</f>
+        <f t="shared" si="0"/>
         <v>Health</v>
       </c>
       <c r="F35" s="13" t="str">
-        <f>B35</f>
+        <f t="shared" si="1"/>
         <v>Doctor Visits</v>
       </c>
       <c r="G35" s="13">
-        <f>C35</f>
-        <v>5190</v>
+        <f t="shared" si="2"/>
+        <v>9065</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -21485,20 +21495,20 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>1876</v>
+        <v>4258</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="13" t="str">
-        <f>A36</f>
+        <f t="shared" si="0"/>
         <v>Health</v>
       </c>
       <c r="F36" s="13" t="str">
-        <f>B36</f>
+        <f t="shared" si="1"/>
         <v>Health Insurance</v>
       </c>
       <c r="G36" s="13">
-        <f>C36</f>
-        <v>1876</v>
+        <f t="shared" si="2"/>
+        <v>4258</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -21509,20 +21519,20 @@
         <v>20</v>
       </c>
       <c r="C37" s="2">
-        <v>4416</v>
+        <v>10692</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="13" t="str">
-        <f>A37</f>
+        <f t="shared" si="0"/>
         <v>Health</v>
       </c>
       <c r="F37" s="13" t="str">
-        <f>B37</f>
+        <f t="shared" si="1"/>
         <v>Medical Tests</v>
       </c>
       <c r="G37" s="13">
-        <f>C37</f>
-        <v>4416</v>
+        <f t="shared" si="2"/>
+        <v>10692</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -21533,20 +21543,20 @@
         <v>21</v>
       </c>
       <c r="C38" s="2">
-        <v>2416</v>
+        <v>3381</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="13" t="str">
-        <f>A38</f>
+        <f t="shared" si="0"/>
         <v>Pet</v>
       </c>
       <c r="F38" s="13" t="str">
-        <f>B38</f>
+        <f t="shared" si="1"/>
         <v>Pet Food</v>
       </c>
       <c r="G38" s="13">
-        <f>C38</f>
-        <v>2416</v>
+        <f t="shared" si="2"/>
+        <v>3381</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -21557,20 +21567,20 @@
         <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>3958</v>
+        <v>8980</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="13" t="str">
-        <f>A39</f>
+        <f t="shared" si="0"/>
         <v>Pet</v>
       </c>
       <c r="F39" s="13" t="str">
-        <f>B39</f>
+        <f t="shared" si="1"/>
         <v>Pet Medication</v>
       </c>
       <c r="G39" s="13">
-        <f>C39</f>
-        <v>3958</v>
+        <f t="shared" si="2"/>
+        <v>8980</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -21581,20 +21591,20 @@
         <v>23</v>
       </c>
       <c r="C40" s="2">
-        <v>2069</v>
+        <v>7177</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="13" t="str">
-        <f>A40</f>
+        <f t="shared" si="0"/>
         <v>Pet</v>
       </c>
       <c r="F40" s="13" t="str">
-        <f>B40</f>
+        <f t="shared" si="1"/>
         <v>Pet Supplies</v>
       </c>
       <c r="G40" s="13">
-        <f>C40</f>
-        <v>2069</v>
+        <f t="shared" si="2"/>
+        <v>7177</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -21605,20 +21615,20 @@
         <v>14</v>
       </c>
       <c r="C41" s="2">
-        <v>6279</v>
+        <v>9965</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="13" t="str">
-        <f>A41</f>
+        <f t="shared" si="0"/>
         <v>Transportation</v>
       </c>
       <c r="F41" s="13" t="str">
-        <f>B41</f>
+        <f t="shared" si="1"/>
         <v>App-Based Transportation</v>
       </c>
       <c r="G41" s="13">
-        <f>C41</f>
-        <v>6279</v>
+        <f t="shared" si="2"/>
+        <v>9965</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21629,20 +21639,20 @@
         <v>15</v>
       </c>
       <c r="C42" s="2">
-        <v>11281</v>
+        <v>19517</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="13" t="str">
-        <f>A42</f>
+        <f t="shared" si="0"/>
         <v>Transportation</v>
       </c>
       <c r="F42" s="13" t="str">
-        <f>B42</f>
+        <f t="shared" si="1"/>
         <v>Public Transportation</v>
       </c>
       <c r="G42" s="13">
-        <f>C42</f>
-        <v>11281</v>
+        <f t="shared" si="2"/>
+        <v>19517</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21650,7 +21660,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="2">
-        <v>77310</v>
+        <v>149104</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -21682,7 +21692,7 @@
   <dimension ref="A1:F558"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31219,6 +31229,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H4EH3qpRcD6XeRIqxVxXlZ0iJD5JHlQ+7jYFl4PGDCIU6kgaNOuSbkL6Ff09XOa3YGGTgTL7sqp+9JApZ78nrg==" saltValue="tC2S05HxYZWbpvakiWjxxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <extLst>
